--- a/kik-modeldocumenten/modeldocumenten/Hypotheek Stater generiek/overzicht labels Stater generiek.xlsx
+++ b/kik-modeldocumenten/modeldocumenten/Hypotheek Stater generiek/overzicht labels Stater generiek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\aa\aa-documentation\kik-modeldocumenten\modeldocumenten\Hypotheek Stater generiek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE47D67-1D8D-4E42-8DE8-18BF1717C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B814DBBA-5490-4F15-AA57-942C5BDF294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30720" yWindow="-1500" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Labels </t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>01-09-2024</t>
+  </si>
+  <si>
+    <t>nibc</t>
+  </si>
+  <si>
+    <t>20-10-2025</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,8 +448,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
